--- a/VerveStacks_BRA/SuppXLS/scen_tsparameters_s2_w.xlsx
+++ b/VerveStacks_BRA/SuppXLS/scen_tsparameters_s2_w.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BRA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAD4DB20-3413-4B03-BC05-75952AAFFE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65B6F210-1F01-468D-9D5E-403B484132EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2361,13 +2361,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S2aH6,S3aH5,S5aH3,S6b1212h17,S6b1213h11,S6b1214h11,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S1aH3,S6b1211h11,S6b1212h08,S6b1213h10,S6b1214h09,S6b1216h07,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S4aH5,S6b1213h17,S6b1214h18,S6b1215h15,S6b1216h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6b1210h08,S6b1210h12,S6b1212h14,S6b1216h13,S6b1216h14,S6c1223h12,S6c1223h15,S6b1211h10,S6b1212h09,S6b1213h08,S6b1214h16,S6b1215h11,S6c1217h17,S3aH3,S6b1211h12,S6b1211h15,S6b1213h07,S6b1213h16,S6b1214h13,S6c1217h12,S6c1218h09,S6c1219h14,S5aH4,S6aH3,S6aH4,S6b1210h13,S6b1215h12,S6b1215h17,S6b1216h12,S6b1216h15,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S4aH2,S6b1210h14,S6b1210h15,S6b1211h16,S6b1212h11,S6b1212h13,S6b1212h15,S6b1215h07,S6b1216h09,S6c1219h16,S6c1221h11,S1aH4,S2aH2,S4aH6,S6b1210h10,S6b1211h17,S6b1211h18,S6b1212h10,S6b1212h16,S6b1216h17,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S3aH4,S4aH3,S4aH4,S6b1210h16,S6b1211h09,S6b1212h12,S6b1212h18,S6b1213h18,S6b1215h14,S6b1216h10,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S1aH2,S2aH3,S3aH6,S5aH6,S6aH6,S6b1210h17,S6b1211h13,S6b1214h08,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S6aH5,S6b1210h11,S6b1211h14,S6b1214h15,S6b1214h17,S6b1215h09,S6b1215h10,S6b1216h11,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S6b1210h07,S6b1210h18,S6b1211h07,S6b1211h08,S6b1213h14,S6b1213h15,S6b1214h12,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S3aH2,S6b1214h07,S6b1214h14,S6b1215h18,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S1aH6,S6b1212h07,S6b1213h09,S6b1213h12,S6b1213h13,S6b1215h08,S6b1215h13,S6b1216h08,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S6b1210h09,S6b1214h10,S6b1215h16,S6b1216h18,S6c1219h13,S6c1220h14,S6c1222h18</t>
+    <t>S1aH3,S6b1211h11,S6b1212h08,S6b1213h10,S6b1214h09,S6b1216h07,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S6aH5,S6b1210h11,S6b1211h14,S6b1214h15,S6b1214h17,S6b1215h09,S6b1215h10,S6b1216h11,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S2aH6,S3aH5,S5aH3,S6b1212h17,S6b1213h11,S6b1214h11,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S6b1211h10,S6b1212h09,S6b1213h08,S6b1214h16,S6b1215h11,S6c1217h17,S3aH3,S6b1211h12,S6b1211h15,S6b1213h07,S6b1213h16,S6b1214h13,S6c1217h12,S6c1218h09,S6c1219h14,S1aH6,S6b1212h07,S6b1213h09,S6b1213h12,S6b1213h13,S6b1215h08,S6b1215h13,S6b1216h08,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6b1210h08,S6b1210h12,S6b1212h14,S6b1216h13,S6b1216h14,S6c1223h12,S6c1223h15,S3aH4,S4aH3,S4aH4,S6b1210h16,S6b1211h09,S6b1212h12,S6b1212h18,S6b1213h18,S6b1215h14,S6b1216h10,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S4aH2,S6b1210h14,S6b1210h15,S6b1211h16,S6b1212h11,S6b1212h13,S6b1212h15,S6b1215h07,S6b1216h09,S6c1219h16,S6c1221h11,S4aH5,S6b1213h17,S6b1214h18,S6b1215h15,S6b1216h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S6b1210h09,S6b1214h10,S6b1215h16,S6b1216h18,S6c1219h13,S6c1220h14,S6c1222h18,S5aH4,S6aH3,S6aH4,S6b1210h13,S6b1215h12,S6b1215h17,S6b1216h12,S6b1216h15,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S1aH2,S2aH3,S3aH6,S5aH6,S6aH6,S6b1210h17,S6b1211h13,S6b1214h08,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S1aH4,S2aH2,S4aH6,S6b1210h10,S6b1211h17,S6b1211h18,S6b1212h10,S6b1212h16,S6b1216h17,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S6b1210h07,S6b1210h18,S6b1211h07,S6b1211h08,S6b1213h14,S6b1213h15,S6b1214h12,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S3aH2,S6b1214h07,S6b1214h14,S6b1215h18,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S1aH8,S5aH1,S6aH7,S6b1210h20,S6b1210h22,S6b1211h03,S6b1211h20,S6b1212h24,S6b1213h19,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S1aH7,S4aH7,S5aH7,S6b1210h04,S6b1210h24,S6b1211h22,S6b1215h03,S6b1215h24,S6b1216h22,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S6b1210h23,S6b1213h20,S6b1215h02,S6b1215h05,S6b1215h06,S6b1216h04,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S6b1212h05,S6b1213h03,S6b1214h02,S6b1215h04,S6b1216h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S2aH8,S6b1211h23,S6b1214h04,S6b1214h23,S6b1215h21,S6c1217h05,S6c1223h01,S6c1223h24,S6b1210h19,S6b1211h05,S6b1212h01,S6b1213h06,S6b1213h21,S6b1214h21,S6c1217h01,S6c1220h05,S6b1210h02,S6b1211h01,S6b1212h03,S6b1212h04,S6b1213h24,S6b1214h05,S6b1214h20,S6b1216h02,S6c1217h03,S6c1219h01,S2aH1,S3aH7,S5aH8,S6b1211h06,S6b1212h22,S6b1214h06,S6b1215h23,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S4aH1,S6aH1,S6b1211h04,S6b1212h02,S6b1212h06,S6b1212h21,S6b1214h01,S6b1216h03,S6b1216h20,S6c1218h23,S6c1219h04,S6c1223h22,S6b1210h01,S6b1210h06,S6b1213h01,S6b1215h22,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S6b1213h05,S6b1216h01,S6b1216h06,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S4aH8,S6b1210h21,S6b1211h02,S6b1213h02,S6b1214h03,S6b1214h19,S6b1215h01,S6b1215h19,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S1aH1,S2aH7,S6b1210h03,S6b1211h21,S6b1211h24,S6b1212h23,S6b1214h22,S6c1217h21,S6c1220h06,S6c1221h22,S3aH8,S6b1212h19,S6b1216h05,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S6aH8,S6b1210h05,S6b1211h19,S6b1212h20,S6b1213h23,S6b1214h24,S6b1215h20,S6b1216h19,S6b1216h21,S6b1216h23,S6c1222h02,S6c1222h06,S3aH1,S6b1213h04,S6b1213h22,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21</t>
+    <t>S1aH7,S4aH7,S5aH7,S6b1210h04,S6b1210h24,S6b1211h22,S6b1215h03,S6b1215h24,S6b1216h22,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S4aH8,S6b1210h21,S6b1211h02,S6b1213h02,S6b1214h03,S6b1214h19,S6b1215h01,S6b1215h19,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S1aH8,S5aH1,S6aH7,S6b1210h20,S6b1210h22,S6b1211h03,S6b1211h20,S6b1212h24,S6b1213h19,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S2aH8,S6b1211h23,S6b1214h04,S6b1214h23,S6b1215h21,S6c1217h05,S6c1223h01,S6c1223h24,S6b1210h19,S6b1211h05,S6b1212h01,S6b1213h06,S6b1213h21,S6b1214h21,S6c1217h01,S6c1220h05,S6aH8,S6b1210h05,S6b1211h19,S6b1212h20,S6b1213h23,S6b1214h24,S6b1215h20,S6b1216h19,S6b1216h21,S6b1216h23,S6c1222h02,S6c1222h06,S6b1212h05,S6b1213h03,S6b1214h02,S6b1215h04,S6b1216h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S6b1210h01,S6b1210h06,S6b1213h01,S6b1215h22,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S2aH1,S3aH7,S5aH8,S6b1211h06,S6b1212h22,S6b1214h06,S6b1215h23,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S6b1210h23,S6b1213h20,S6b1215h02,S6b1215h05,S6b1215h06,S6b1216h04,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S3aH1,S6b1213h04,S6b1213h22,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S6b1210h02,S6b1211h01,S6b1212h03,S6b1212h04,S6b1213h24,S6b1214h05,S6b1214h20,S6b1216h02,S6c1217h03,S6c1219h01,S6b1213h05,S6b1216h01,S6b1216h06,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S4aH1,S6aH1,S6b1211h04,S6b1212h02,S6b1212h06,S6b1212h21,S6b1214h01,S6b1216h03,S6b1216h20,S6c1218h23,S6c1219h04,S6c1223h22,S1aH1,S2aH7,S6b1210h03,S6b1211h21,S6b1211h24,S6b1212h23,S6b1214h22,S6c1217h21,S6c1220h06,S6c1221h22,S3aH8,S6b1212h19,S6b1216h05,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S1aH8,S5aH1,S6aH7,S6b1210h20,S6b1210h22,S6b1211h03,S6b1211h20,S6b1212h24,S6b1213h19,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S1aH7,S4aH7,S5aH7,S6b1210h04,S6b1210h24,S6b1211h22,S6b1215h03,S6b1215h24,S6b1216h22,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S6b1210h23,S6b1213h20,S6b1215h02,S6b1215h05,S6b1215h06,S6b1216h04,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S6b1212h05,S6b1213h03,S6b1214h02,S6b1215h04,S6b1216h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S2aH8,S6b1211h23,S6b1214h04,S6b1214h23,S6b1215h21,S6c1217h05,S6c1223h01,S6c1223h24,S6b1210h19,S6b1211h05,S6b1212h01,S6b1213h06,S6b1213h21,S6b1214h21,S6c1217h01,S6c1220h05,S6b1210h02,S6b1211h01,S6b1212h03,S6b1212h04,S6b1213h24,S6b1214h05,S6b1214h20,S6b1216h02,S6c1217h03,S6c1219h01,S2aH1,S3aH7,S5aH8,S6b1211h06,S6b1212h22,S6b1214h06,S6b1215h23,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S4aH1,S6aH1,S6b1211h04,S6b1212h02,S6b1212h06,S6b1212h21,S6b1214h01,S6b1216h03,S6b1216h20,S6c1218h23,S6c1219h04,S6c1223h22,S6b1210h01,S6b1210h06,S6b1213h01,S6b1215h22,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S6b1213h05,S6b1216h01,S6b1216h06,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S4aH8,S6b1210h21,S6b1211h02,S6b1213h02,S6b1214h03,S6b1214h19,S6b1215h01,S6b1215h19,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S1aH1,S2aH7,S6b1210h03,S6b1211h21,S6b1211h24,S6b1212h23,S6b1214h22,S6c1217h21,S6c1220h06,S6c1221h22,S3aH8,S6b1212h19,S6b1216h05,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S6aH8,S6b1210h05,S6b1211h19,S6b1212h20,S6b1213h23,S6b1214h24,S6b1215h20,S6b1216h19,S6b1216h21,S6b1216h23,S6c1222h02,S6c1222h06,S3aH1,S6b1213h04,S6b1213h22,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21</v>
+        <v>S1aH7,S4aH7,S5aH7,S6b1210h04,S6b1210h24,S6b1211h22,S6b1215h03,S6b1215h24,S6b1216h22,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S4aH8,S6b1210h21,S6b1211h02,S6b1213h02,S6b1214h03,S6b1214h19,S6b1215h01,S6b1215h19,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S1aH8,S5aH1,S6aH7,S6b1210h20,S6b1210h22,S6b1211h03,S6b1211h20,S6b1212h24,S6b1213h19,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S2aH8,S6b1211h23,S6b1214h04,S6b1214h23,S6b1215h21,S6c1217h05,S6c1223h01,S6c1223h24,S6b1210h19,S6b1211h05,S6b1212h01,S6b1213h06,S6b1213h21,S6b1214h21,S6c1217h01,S6c1220h05,S6aH8,S6b1210h05,S6b1211h19,S6b1212h20,S6b1213h23,S6b1214h24,S6b1215h20,S6b1216h19,S6b1216h21,S6b1216h23,S6c1222h02,S6c1222h06,S6b1212h05,S6b1213h03,S6b1214h02,S6b1215h04,S6b1216h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S6b1210h01,S6b1210h06,S6b1213h01,S6b1215h22,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S2aH1,S3aH7,S5aH8,S6b1211h06,S6b1212h22,S6b1214h06,S6b1215h23,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S6b1210h23,S6b1213h20,S6b1215h02,S6b1215h05,S6b1215h06,S6b1216h04,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S3aH1,S6b1213h04,S6b1213h22,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S6b1210h02,S6b1211h01,S6b1212h03,S6b1212h04,S6b1213h24,S6b1214h05,S6b1214h20,S6b1216h02,S6c1217h03,S6c1219h01,S6b1213h05,S6b1216h01,S6b1216h06,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S4aH1,S6aH1,S6b1211h04,S6b1212h02,S6b1212h06,S6b1212h21,S6b1214h01,S6b1216h03,S6b1216h20,S6c1218h23,S6c1219h04,S6c1223h22,S1aH1,S2aH7,S6b1210h03,S6b1211h21,S6b1211h24,S6b1212h23,S6b1214h22,S6c1217h21,S6c1220h06,S6c1221h22,S3aH8,S6b1212h19,S6b1216h05,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S2aH6,S3aH5,S5aH3,S6b1212h17,S6b1213h11,S6b1214h11,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S1aH3,S6b1211h11,S6b1212h08,S6b1213h10,S6b1214h09,S6b1216h07,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S4aH5,S6b1213h17,S6b1214h18,S6b1215h15,S6b1216h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6b1210h08,S6b1210h12,S6b1212h14,S6b1216h13,S6b1216h14,S6c1223h12,S6c1223h15,S6b1211h10,S6b1212h09,S6b1213h08,S6b1214h16,S6b1215h11,S6c1217h17,S3aH3,S6b1211h12,S6b1211h15,S6b1213h07,S6b1213h16,S6b1214h13,S6c1217h12,S6c1218h09,S6c1219h14,S5aH4,S6aH3,S6aH4,S6b1210h13,S6b1215h12,S6b1215h17,S6b1216h12,S6b1216h15,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S4aH2,S6b1210h14,S6b1210h15,S6b1211h16,S6b1212h11,S6b1212h13,S6b1212h15,S6b1215h07,S6b1216h09,S6c1219h16,S6c1221h11,S1aH4,S2aH2,S4aH6,S6b1210h10,S6b1211h17,S6b1211h18,S6b1212h10,S6b1212h16,S6b1216h17,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S3aH4,S4aH3,S4aH4,S6b1210h16,S6b1211h09,S6b1212h12,S6b1212h18,S6b1213h18,S6b1215h14,S6b1216h10,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S1aH2,S2aH3,S3aH6,S5aH6,S6aH6,S6b1210h17,S6b1211h13,S6b1214h08,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S6aH5,S6b1210h11,S6b1211h14,S6b1214h15,S6b1214h17,S6b1215h09,S6b1215h10,S6b1216h11,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S6b1210h07,S6b1210h18,S6b1211h07,S6b1211h08,S6b1213h14,S6b1213h15,S6b1214h12,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S3aH2,S6b1214h07,S6b1214h14,S6b1215h18,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S1aH6,S6b1212h07,S6b1213h09,S6b1213h12,S6b1213h13,S6b1215h08,S6b1215h13,S6b1216h08,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S6b1210h09,S6b1214h10,S6b1215h16,S6b1216h18,S6c1219h13,S6c1220h14,S6c1222h18</v>
+        <v>S1aH3,S6b1211h11,S6b1212h08,S6b1213h10,S6b1214h09,S6b1216h07,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S6aH5,S6b1210h11,S6b1211h14,S6b1214h15,S6b1214h17,S6b1215h09,S6b1215h10,S6b1216h11,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S2aH6,S3aH5,S5aH3,S6b1212h17,S6b1213h11,S6b1214h11,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S6b1211h10,S6b1212h09,S6b1213h08,S6b1214h16,S6b1215h11,S6c1217h17,S3aH3,S6b1211h12,S6b1211h15,S6b1213h07,S6b1213h16,S6b1214h13,S6c1217h12,S6c1218h09,S6c1219h14,S1aH6,S6b1212h07,S6b1213h09,S6b1213h12,S6b1213h13,S6b1215h08,S6b1215h13,S6b1216h08,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6b1210h08,S6b1210h12,S6b1212h14,S6b1216h13,S6b1216h14,S6c1223h12,S6c1223h15,S3aH4,S4aH3,S4aH4,S6b1210h16,S6b1211h09,S6b1212h12,S6b1212h18,S6b1213h18,S6b1215h14,S6b1216h10,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S4aH2,S6b1210h14,S6b1210h15,S6b1211h16,S6b1212h11,S6b1212h13,S6b1212h15,S6b1215h07,S6b1216h09,S6c1219h16,S6c1221h11,S4aH5,S6b1213h17,S6b1214h18,S6b1215h15,S6b1216h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S6b1210h09,S6b1214h10,S6b1215h16,S6b1216h18,S6c1219h13,S6c1220h14,S6c1222h18,S5aH4,S6aH3,S6aH4,S6b1210h13,S6b1215h12,S6b1215h17,S6b1216h12,S6b1216h15,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S1aH2,S2aH3,S3aH6,S5aH6,S6aH6,S6b1210h17,S6b1211h13,S6b1214h08,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S1aH4,S2aH2,S4aH6,S6b1210h10,S6b1211h17,S6b1211h18,S6b1212h10,S6b1212h16,S6b1216h17,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S6b1210h07,S6b1210h18,S6b1211h07,S6b1211h08,S6b1213h14,S6b1213h15,S6b1214h12,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S3aH2,S6b1214h07,S6b1214h14,S6b1215h18,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -3018,7 +3018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C5DA1D-6967-4323-9B8D-CD4AA195BDA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46A7496-CF84-4F83-B5B8-E500A280E203}">
   <dimension ref="A9:AM778"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3333,10 +3333,10 @@
         <v>5.3223687573688006E-2</v>
       </c>
       <c r="AK12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AL12">
-        <v>0.21508075954190392</v>
+        <v>0.53942716822964076</v>
       </c>
       <c r="AM12" t="s">
         <v>781</v>
@@ -3425,10 +3425,10 @@
         <v>4.9864854453449015E-2</v>
       </c>
       <c r="AK13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AL13">
-        <v>0.11181015686191494</v>
+        <v>9.2097631194563823E-2</v>
       </c>
       <c r="AM13" t="s">
         <v>781</v>
@@ -3511,10 +3511,10 @@
         <v>0.15832017615902494</v>
       </c>
       <c r="AK14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AL14">
-        <v>0.12513812739473737</v>
+        <v>0.21508075954190392</v>
       </c>
       <c r="AM14" t="s">
         <v>781</v>
@@ -3597,10 +3597,10 @@
         <v>0.15567027243114007</v>
       </c>
       <c r="AK15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL15">
-        <v>9.2097631194563823E-2</v>
+        <v>0.12513812739473737</v>
       </c>
       <c r="AM15" t="s">
         <v>781</v>
@@ -3683,10 +3683,10 @@
         <v>0.15499617244472663</v>
       </c>
       <c r="AK16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AL16">
-        <v>0.53942716822964065</v>
+        <v>0.11181015686191494</v>
       </c>
       <c r="AM16" t="s">
         <v>781</v>
